--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2BAC837-D2DB-F048-9508-8B0AEAAE61AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C1A7D-BB77-4C46-8C92-93EBB3551EB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -1190,7 +1190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1247,7 +1247,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1264,7 +1264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1615,13 +1615,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1637,39 +1637,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1683,22 +1683,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1741,14 +1741,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1765,14 +1765,14 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1789,14 +1789,14 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
@@ -1842,9 +1842,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1862,7 +1862,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1871,7 +1871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1889,7 +1889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1911,15 +1911,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2053,21 +2053,21 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2339,7 +2339,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2350,7 +2350,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2361,7 +2361,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2372,7 +2372,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2383,7 +2383,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2394,7 +2394,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2405,7 +2405,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2416,7 +2416,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2427,7 +2427,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2438,7 +2438,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2449,7 +2449,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2479,17 +2479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C1A7D-BB77-4C46-8C92-93EBB3551EB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7E823D3-556C-CB49-B9DE-96211F2A8D0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>Code Name</t>
   </si>
@@ -1190,7 +1190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1247,7 +1247,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1264,7 +1264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1615,13 +1615,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1637,39 +1637,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1683,22 +1683,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1842,9 +1842,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1862,7 +1862,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1871,7 +1871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1889,7 +1889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1911,15 +1911,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2049,25 +2049,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -2152,13 +2152,15 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2208,13 +2210,15 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2264,13 +2268,15 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2320,13 +2326,15 @@
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2339,7 +2347,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2350,7 +2358,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2361,7 +2369,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2372,7 +2380,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2383,7 +2391,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2394,7 +2402,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2405,7 +2413,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2416,7 +2424,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2427,7 +2435,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2438,7 +2446,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2449,7 +2457,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2483,13 +2491,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7E823D3-556C-CB49-B9DE-96211F2A8D0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10244AE5-B368-40DF-953C-D18658D6F905}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
-    <sheet name="Compartments" sheetId="2" r:id="rId2"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId3"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId5"/>
-    <sheet name="Cascades" sheetId="7" r:id="rId6"/>
+    <sheet name="About" sheetId="9" r:id="rId1"/>
+    <sheet name="Databook Pages" sheetId="8" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="2" r:id="rId3"/>
+    <sheet name="Transitions" sheetId="3" r:id="rId4"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -988,7 +989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>Code Name</t>
   </si>
@@ -1183,6 +1184,18 @@
   </si>
   <si>
     <t>num_diag/scr</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>USDT cascade</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1203,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1247,9 +1260,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,11 +1277,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1608,6 +1624,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F58F0-B063-4640-9F39-D0203701916E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1615,13 +1662,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1637,39 +1684,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1679,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1687,18 +1734,18 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1842,9 +1889,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1862,7 +1909,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1871,7 +1918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1880,7 +1927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1889,7 +1936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1903,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1911,15 +1958,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1965,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -1988,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2045,29 +2092,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2129,7 +2176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -2160,7 +2207,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +2234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2265,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2323,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2303,7 +2350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2334,7 +2381,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2347,7 +2394,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2358,7 +2405,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2369,7 +2416,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2380,7 +2427,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2391,7 +2438,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2402,7 +2449,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2413,7 +2460,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2424,7 +2471,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2435,7 +2482,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2446,7 +2493,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2457,7 +2504,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2483,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2491,13 +2538,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2505,7 +2552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2513,7 +2560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -2521,7 +2568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2529,7 +2576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10244AE5-B368-40DF-953C-D18658D6F905}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87A70EC1-D28B-AB47-932D-F6F953462D2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -911,7 +911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
       <text>
         <r>
           <rPr>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>Code Name</t>
   </si>
@@ -1109,9 +1109,6 @@
   </si>
   <si>
     <t>Databook Page</t>
-  </si>
-  <si>
-    <t>Export</t>
   </si>
   <si>
     <t>number</t>
@@ -1203,7 +1200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1260,7 +1257,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1277,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1627,26 +1624,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F58F0-B063-4640-9F39-D0203701916E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1662,13 +1659,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1684,39 +1681,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1728,24 +1725,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,11 +1764,8 @@
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1791,16 +1785,13 @@
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1815,11 +1806,8 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1839,11 +1827,8 @@
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1863,9 +1848,6 @@
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1889,9 +1871,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1909,25 +1891,25 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1936,7 +1918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1952,21 +1934,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,11 +1967,8 @@
       <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1997,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2008,19 +1987,16 @@
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2031,11 +2007,8 @@
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2054,11 +2027,8 @@
       <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2076,9 +2046,6 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2094,27 +2061,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2143,21 +2110,18 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -2170,18 +2134,15 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -2194,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -2202,20 +2163,17 @@
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -2228,18 +2186,15 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2252,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -2260,20 +2215,17 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2">
@@ -2286,18 +2238,15 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -2310,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -2318,20 +2267,17 @@
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2344,13 +2290,10 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2368,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>8</v>
@@ -2376,12 +2319,9 @@
       <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2392,9 +2332,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2405,7 +2344,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2416,7 +2355,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2427,7 +2366,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2438,7 +2377,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2449,7 +2388,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2460,7 +2399,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2471,7 +2410,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2482,7 +2421,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2493,7 +2432,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2504,7 +2443,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2517,7 +2456,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10 H2:I21" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I21" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -2534,17 +2473,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2560,15 +2499,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87A70EC1-D28B-AB47-932D-F6F953462D2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5714E1-334B-4001-95BD-2C945D6118ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>Code Name</t>
   </si>
@@ -1200,7 +1200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1257,7 +1257,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1274,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1628,9 +1628,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
@@ -1659,13 +1659,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1681,39 +1681,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1728,21 +1728,21 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1781,12 +1781,10 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1802,12 +1800,10 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1823,12 +1819,10 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1844,9 +1838,7 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
   </sheetData>
@@ -1871,9 +1863,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1891,7 +1883,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1900,7 +1892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1909,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1918,7 +1910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1937,18 +1929,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +1980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -2008,7 +2000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2063,25 +2055,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -2137,7 +2129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -2165,7 +2157,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2189,7 +2181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2217,7 +2209,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -2241,7 +2233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2269,7 +2261,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2313,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2333,7 +2325,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2344,7 +2336,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2355,7 +2347,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2366,7 +2358,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2377,7 +2369,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2388,7 +2380,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2399,7 +2391,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2410,7 +2402,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2421,7 +2413,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2432,7 +2424,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2443,7 +2435,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2473,17 +2465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2499,7 +2491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -2507,7 +2499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +2507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5714E1-334B-4001-95BD-2C945D6118ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746963B-343B-475F-8E27-F59BEFF80B73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -292,30 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>during model calibration processes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1463AD83-63D4-EC46-A82A-37905E1D406B}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1463AD83-63D4-EC46-A82A-37905E1D406B}">
       <text>
         <r>
           <rPr>
@@ -502,21 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether characteristic size data can be rescaled
-during model calibration processes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A922DFF6-C9D0-AC4E-B73F-8ED95E92610A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A922DFF6-C9D0-AC4E-B73F-8ED95E92610A}">
       <text>
         <r>
           <rPr>
@@ -897,21 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether parameter data can be rescaled
-during model calibration processes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
       <text>
         <r>
           <rPr>
@@ -989,7 +938,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>Code Name</t>
   </si>
@@ -1009,9 +958,6 @@
     <t>Setup Weight</t>
   </si>
   <si>
-    <t>Can Calibrate</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -1036,9 +982,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Is Impact</t>
-  </si>
-  <si>
     <t>Undiagnosed</t>
   </si>
   <si>
@@ -1193,6 +1136,9 @@
   </si>
   <si>
     <t>USDT cascade</t>
+  </si>
+  <si>
+    <t>Targetable</t>
   </si>
 </sst>
 </file>
@@ -1632,18 +1578,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1656,29 +1602,29 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,24 +1671,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,95 +1704,85 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,7 +1824,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,7 +1833,7 @@
         <v>scr</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,7 +1842,7 @@
         <v>dx</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,7 +1851,7 @@
         <v>tx</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1926,21 +1861,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1948,104 +1884,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"y,n"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2053,27 +1969,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,39 +1996,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -2122,22 +2034,21 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -2147,25 +2058,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -2174,22 +2082,21 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -2199,25 +2106,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2">
@@ -2226,22 +2130,21 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2">
@@ -2251,25 +2154,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2278,22 +2178,21 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2303,17 +2202,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2323,9 +2219,8 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2334,9 +2229,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2345,9 +2239,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2356,9 +2249,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2367,9 +2259,8 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2378,9 +2269,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2389,9 +2279,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2400,9 +2289,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2411,9 +2299,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2422,9 +2309,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2433,9 +2319,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2444,11 +2329,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I21" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -2465,54 +2349,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746963B-343B-475F-8E27-F59BEFF80B73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE52563-4681-47D5-A8A4-0EF1BD0DBBFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -1072,15 +1072,9 @@
     <t>Initiation rate</t>
   </si>
   <si>
-    <t>num_initiate/dx</t>
-  </si>
-  <si>
     <t>num_loss</t>
   </si>
   <si>
-    <t>num_loss/tx</t>
-  </si>
-  <si>
     <t>Annual number of new diagnoses</t>
   </si>
   <si>
@@ -1120,12 +1114,6 @@
     <t>Screening rate</t>
   </si>
   <si>
-    <t>num_screen/undx</t>
-  </si>
-  <si>
-    <t>num_diag/scr</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1139,6 +1127,18 @@
   </si>
   <si>
     <t>Targetable</t>
+  </si>
+  <si>
+    <t>num_screen/max(undx,num_screen)</t>
+  </si>
+  <si>
+    <t>num_diag/max(scr,num_diag)</t>
+  </si>
+  <si>
+    <t>num_initiate/max(dx,num_initiate)</t>
+  </si>
+  <si>
+    <t>num_loss/max(tx,num_loss)</t>
   </si>
 </sst>
 </file>
@@ -1578,18 +1578,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1824,7 +1824,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>7</v>
@@ -2070,7 +2070,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
@@ -2118,7 +2118,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -2349,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE52563-4681-47D5-A8A4-0EF1BD0DBBFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C752EAB5-16C6-D64C-AA3F-D82C60203996}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Code Name</t>
   </si>
@@ -1123,9 +1123,6 @@
     <t>USDT</t>
   </si>
   <si>
-    <t>USDT cascade</t>
-  </si>
-  <si>
     <t>Targetable</t>
   </si>
   <si>
@@ -1139,6 +1136,54 @@
   </si>
   <si>
     <t>num_loss/max(tx,num_loss)</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Use this file to specify the structure of your model. Any extra sheets will be ignored, so you can include other information in them</t>
+  </si>
+  <si>
+    <t>Page Overview</t>
+  </si>
+  <si>
+    <t>Databook Pages</t>
+  </si>
+  <si>
+    <t>Specify which worksheets will be present in the databook</t>
+  </si>
+  <si>
+    <t>Compartments</t>
+  </si>
+  <si>
+    <t>Specify the states that an individual can be in - an individual is only ever in one compartment at a time</t>
+  </si>
+  <si>
+    <t>Transitions</t>
+  </si>
+  <si>
+    <t>Specify which transitions between compartments are possible</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>Specify groups of people (e.g. groups of compartments) for data entry</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Define how to compute the flows between compartments</t>
+  </si>
+  <si>
+    <t>Cascades</t>
+  </si>
+  <si>
+    <t>Use the Cascades sheet to define the cascade if it is more complex than just all characteristics in sequence</t>
+  </si>
+  <si>
+    <t>Framework for a 4-stage cascade model, without vital dynamics or new cases</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1203,7 +1248,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1220,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1568,15 +1613,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F58F0-B063-4640-9F39-D0203701916E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1584,12 +1633,75 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1605,13 +1717,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1627,39 +1739,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1677,17 +1789,17 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1837,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1743,7 +1855,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1873,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1798,9 +1910,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1818,7 +1930,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1827,7 +1939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1836,7 +1948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1845,7 +1957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1867,16 +1979,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +2005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1910,7 +2022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1927,7 +2039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +2056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1971,24 +2083,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,13 +2123,13 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2040,7 +2152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -2058,14 +2170,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2106,14 +2218,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2136,7 +2248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2154,14 +2266,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2184,7 +2296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2202,14 +2314,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
@@ -2220,7 +2332,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2230,7 +2342,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2240,7 +2352,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2250,7 +2362,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2260,7 +2372,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2270,7 +2382,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2280,7 +2392,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2290,7 +2402,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2300,7 +2412,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2310,7 +2422,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2320,7 +2432,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2353,13 +2465,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -2367,7 +2479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2375,7 +2487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -2383,7 +2495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -2391,7 +2503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>

--- a/tests/frameworks/framework_usdt.xlsx
+++ b/tests/frameworks/framework_usdt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C752EAB5-16C6-D64C-AA3F-D82C60203996}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{252B0028-1C75-6D42-B5DB-DB5B7D558E02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -167,23 +167,131 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'code name' of a compartment within a
-population cascade, a state that an entity can exist in that is
-distinct from all other states.
-Examples may include 'sus', 'inf_1', 'rec', etc.
-If entities in the network involve two 'orthogonal' descriptors,
-compartments should combine the status of each state in the title,
-e.g. 'inc_high_edu_hs', to make sure that each entity in a cascade is
-only ever in one state at a time.
-It is possible to bundle independent states as analytical features of
-interest elsewhere in the framework file.
-Note: A code name is a representative key that developers interface
-with (e.g. in scripts and the codebase).
-It should be in lower case without spaces.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for the 'code name' of a compartment within a
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">population cascade, a state that an entity can exist in that is
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">distinct from all other states.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples may include 'sus', 'inf_1', 'rec', etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If entities in the network involve two 'orthogonal' descriptors,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartments should combine the status of each state in the title,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g. 'inc_high_edu_hs', to make sure that each entity in a cascade is
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">only ever in one state at a time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It is possible to bundle independent states as analytical features of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">interest elsewhere in the framework file.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: A code name is a representative key that developers interface
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with (e.g. in scripts and the codebase).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>It should be in lower case without spaces.</t>
         </r>
       </text>
     </comment>
@@ -372,6 +480,49 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Romesh</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{519CAD35-AE41-3846-9C03-DD2A9076012E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Romesh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The transition matrix specifies which transitions exist and which parameter governs them. Transitions go from row to column</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -556,7 +707,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -938,7 +1089,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Code Name</t>
   </si>
@@ -1184,6 +1335,9 @@
   </si>
   <si>
     <t>Framework for a 4-stage cascade model, without vital dynamics or new cases</t>
+  </si>
+  <si>
+    <t>Transition Matrix</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,6 +1381,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1615,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F58F0-B063-4640-9F39-D0203701916E}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1903,16 +2070,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1968,6 +2138,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
